--- a/签到表截止8.20.xlsx
+++ b/签到表截止8.20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\MayLearnDemo\documentDealer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\段宇宁\Desktop\签到表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C8D5C-4A3B-4490-BA4E-08833EC182D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FAD7F5-CBBA-4E27-B1AC-ED17D0DDC555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5276" yWindow="1029" windowWidth="22362" windowHeight="11483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="477">
   <si>
     <t>姓名</t>
   </si>
@@ -1463,6 +1463,10 @@
   </si>
   <si>
     <t>戚珂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/20下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,7 +1539,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1545,26 +1549,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1907,7 +1891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1927,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,16 +5291,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D242" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D242">
     <sortCondition ref="B2:B242"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A171 A173:A1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"胡骄杨"</formula>
     </cfRule>
   </conditionalFormatting>
